--- a/biology/Histoire de la zoologie et de la botanique/Phainias_d'Érèse/Phainias_d'Érèse.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Phainias_d'Érèse/Phainias_d'Érèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phainias_d%27%C3%89r%C3%A8se</t>
+          <t>Phainias_d'Érèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phainias,  en grec ancien Φαινίας, est un philosophe péripatéticien et botaniste du IVe siècle av. J.-C.[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phainias,  en grec ancien Φαινίας, est un philosophe péripatéticien et botaniste du IVe siècle av. J.-C.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phainias_d%27%C3%89r%C3%A8se</t>
+          <t>Phainias_d'Érèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Érèse dans l’île de Lesbos, Phainias est compatriote, ami et condisciple de Théophraste[2]. Arrivé à Athènes vers 332 av. J.-C., Phainias s’attacha à l’école d’Aristote. Son principal intérêt allait à l'histoire. Commentateur d’Aristote pour ce qui est des sciences et de la logique[3], il fut aussi un continuateur de ses travaux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Érèse dans l’île de Lesbos, Phainias est compatriote, ami et condisciple de Théophraste. Arrivé à Athènes vers 332 av. J.-C., Phainias s’attacha à l’école d’Aristote. Son principal intérêt allait à l'histoire. Commentateur d’Aristote pour ce qui est des sciences et de la logique, il fut aussi un continuateur de ses travaux.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Phainias_d%27%C3%89r%C3%A8se</t>
+          <t>Phainias_d'Érèse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Doctrine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phainias est opposé aux sophistes ; opposé à Diodore Cronos, adepte de la dialectique éristique, dans son ouvrage intitulé Contre Diodore[4], il attribue au sophiste mégarique Polyxène[2] une forme d’argument du troisième homme :
-« Si l’homme est homme par sa participation, par son commerce avec l’idée et l’homme en soi, il faut qu’il y ait un homme dont l’existence dépende de celle de l’idée. Or, ce n’est pas l’homme en soi qui est par une participation avec l’idée, car il est lui-même l’idée ; ce n’est pas non plus quelque homme particulier. Reste donc ce que ce soit un troisième homme, dont l’existence dépend de l’idée. »[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phainias est opposé aux sophistes ; opposé à Diodore Cronos, adepte de la dialectique éristique, dans son ouvrage intitulé Contre Diodore, il attribue au sophiste mégarique Polyxène une forme d’argument du troisième homme :
+« Si l’homme est homme par sa participation, par son commerce avec l’idée et l’homme en soi, il faut qu’il y ait un homme dont l’existence dépende de celle de l’idée. Or, ce n’est pas l’homme en soi qui est par une participation avec l’idée, car il est lui-même l’idée ; ce n’est pas non plus quelque homme particulier. Reste donc ce que ce soit un troisième homme, dont l’existence dépend de l’idée. »
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Phainias_d%27%C3%89r%C3%A8se</t>
+          <t>Phainias_d'Érèse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plutarque de Chéronée, Phainias était versé en histoire[5]. Il est l’auteur de Prytanées d'Érèse[6],[7]. Il s’intéressa aux tyrannies, dans son île et ailleurs, en Sicile entre autres[8], et avait traité des tyrans et de la tyrannie dans un ouvrage intitulé Assassinats de despotes tués par vengeance[9]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plutarque de Chéronée, Phainias était versé en histoire. Il est l’auteur de Prytanées d'Érèse,. Il s’intéressa aux tyrannies, dans son île et ailleurs, en Sicile entre autres, et avait traité des tyrans et de la tyrannie dans un ouvrage intitulé Assassinats de despotes tués par vengeance. 
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phainias_d%27%C3%89r%C3%A8se</t>
+          <t>Phainias_d'Érèse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phainias, le premier, signale les agames. Il étudia les ombellifères et les légumineux : « certaines plantes n’ont ni fleurs, ni organes de fructification apparents, comme les champignons, les mousses, les fougères ». Son ouvrage Sur les plantes[10], en rapport avec l’œuvre de Théophraste[11], s’intéresse plus particulièrement à la précision des définitions[12] et aux soins  des jardins, et de ceux qu’il faut apporter aux plantes. De son traité Sur les plantes[13], cité par Gallien, il ne reste plus qu’un très petit nombre de fragments qui portent à croire que l'ouvrage traitait surtout des fruits[14]. Phainias parle des vertus de l’ortie, et prolonge entre autres les détails de Théophraste sur l’étude du panais, qu’il dit bon contre les morsures de reptiles[15] 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phainias, le premier, signale les agames. Il étudia les ombellifères et les légumineux : « certaines plantes n’ont ni fleurs, ni organes de fructification apparents, comme les champignons, les mousses, les fougères ». Son ouvrage Sur les plantes, en rapport avec l’œuvre de Théophraste, s’intéresse plus particulièrement à la précision des définitions et aux soins  des jardins, et de ceux qu’il faut apporter aux plantes. De son traité Sur les plantes, cité par Gallien, il ne reste plus qu’un très petit nombre de fragments qui portent à croire que l'ouvrage traitait surtout des fruits. Phainias parle des vertus de l’ortie, et prolonge entre autres les détails de Théophraste sur l’étude du panais, qu’il dit bon contre les morsures de reptiles 
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Phainias_d%27%C3%89r%C3%A8se</t>
+          <t>Phainias_d'Érèse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +656,11 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans son ouvrage Des poètes[16], Phainias traita des musiciens et comédiens athéniens. Dans son traité Sur les Socratiques[17], il relate une discussion à laquelle participa Antisthène sur ce qu’il faut faire pour devenir kalos kagathos[18],[19]. L'écrit Sur les Socratiques est mentionné deux fois par Diogène Laërce[20].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son ouvrage Des poètes, Phainias traita des musiciens et comédiens athéniens. Dans son traité Sur les Socratiques, il relate une discussion à laquelle participa Antisthène sur ce qu’il faut faire pour devenir kalos kagathos,. L'écrit Sur les Socratiques est mentionné deux fois par Diogène Laërce.
 </t>
         </is>
       </c>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Phainias_d%27%C3%89r%C3%A8se</t>
+          <t>Phainias_d'Érèse</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,9 +689,11 @@
           <t>Mentions bibliographiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D’après Athénée de Naucratis, Phainias raconte dans un de ses ouvrages que le poète Philoxène de Cythère, gourmand, comme il soupait un jour chez Denys de Sicile, vit servir un gros barbeau au roi, tandis que lui-même en recevait un beaucoup plus petit dans son assiette. Il prit alors le barbeau dans la main et l’approcha de son oreille. Denys lui demandant pourquoi il faisait cela, Philoxène répondit qu’occupé par sa Galatée, il questionnait son barbeau sur ce qu’il voudrait savoir à l’égard de Nérée, mais qu’il ne répondait pas à ces questions, qu'on avait certainement pêché ce barbeau trop jeune et que donc il n’entendait pas. Philoxène dit encore à Denys qu’il était persuadé que le plus vieux (sous-entendant le plus gros) savait parfaitement ce qu'il désirait connaître. Denys rit de la plaisanterie et lui offrit ainsi son barbeau[21].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D’après Athénée de Naucratis, Phainias raconte dans un de ses ouvrages que le poète Philoxène de Cythère, gourmand, comme il soupait un jour chez Denys de Sicile, vit servir un gros barbeau au roi, tandis que lui-même en recevait un beaucoup plus petit dans son assiette. Il prit alors le barbeau dans la main et l’approcha de son oreille. Denys lui demandant pourquoi il faisait cela, Philoxène répondit qu’occupé par sa Galatée, il questionnait son barbeau sur ce qu’il voudrait savoir à l’égard de Nérée, mais qu’il ne répondait pas à ces questions, qu'on avait certainement pêché ce barbeau trop jeune et que donc il n’entendait pas. Philoxène dit encore à Denys qu’il était persuadé que le plus vieux (sous-entendant le plus gros) savait parfaitement ce qu'il désirait connaître. Denys rit de la plaisanterie et lui offrit ainsi son barbeau.
 </t>
         </is>
       </c>
@@ -680,7 +704,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Phainias_d%27%C3%89r%C3%A8se</t>
+          <t>Phainias_d'Érèse</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,7 +722,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Sur les Poètes
 Sur les Socratiques
